--- a/Documents/Model_Comparison_Table.xlsx
+++ b/Documents/Model_Comparison_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Flame2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9CF22-757F-4B1B-B6C9-3FFE9F7C18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C4FEB7-EACD-4C70-8DB3-1E19CCAF87EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Model Name</t>
   </si>
@@ -31,15 +31,6 @@
     <t>Outputs</t>
   </si>
   <si>
-    <t>IR Handling</t>
-  </si>
-  <si>
-    <t>Sensor Handling</t>
-  </si>
-  <si>
-    <t>Additional Layers</t>
-  </si>
-  <si>
     <t>Base Model</t>
   </si>
   <si>
@@ -82,57 +73,6 @@
     <t>Logistic_two_stream</t>
   </si>
   <si>
-    <t>RGB and/or IR images (tensors)</t>
-  </si>
-  <si>
-    <t>RGB and IR images (tensors)</t>
-  </si>
-  <si>
-    <t>RGB images (tensors)</t>
-  </si>
-  <si>
-    <t>RGB tensors (flattened)</t>
-  </si>
-  <si>
-    <t>RGB and IR tensors (flattened)</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Uses single channel directly</t>
-  </si>
-  <si>
-    <t>Not applicable (RGB only)</t>
-  </si>
-  <si>
-    <t>Processed in separate stream</t>
-  </si>
-  <si>
-    <t>Trained together or separately based on mode</t>
-  </si>
-  <si>
-    <t>Trained separately, fused at the end</t>
-  </si>
-  <si>
-    <t>Single sensor (RGB)</t>
-  </si>
-  <si>
-    <t>Conv2D, BatchNorm2D, ReLU, SeparableConv2D</t>
-  </si>
-  <si>
-    <t>Custom classifier (Linear, Dropout, ReLU)</t>
-  </si>
-  <si>
-    <t>Custom classifier (Linear, Dropout)</t>
-  </si>
-  <si>
-    <t>Custom classifier (Linear)</t>
-  </si>
-  <si>
-    <t>Custom Linear layers for classification</t>
-  </si>
-  <si>
     <t>Fully connected layer</t>
   </si>
   <si>
@@ -145,24 +85,114 @@
     <t>ResNet18</t>
   </si>
   <si>
-    <t>LeNet5</t>
-  </si>
-  <si>
     <t>All layers</t>
   </si>
   <si>
     <t>New classifier layers only</t>
+  </si>
+  <si>
+    <t>RGB and/or IR images (3/6x254x254)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification (3x1x1) </t>
+  </si>
+  <si>
+    <t>MultiModality Handling</t>
+  </si>
+  <si>
+    <t>Early Fusion (If used)</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Model Architecture</t>
+  </si>
+  <si>
+    <t>Custom model, containing Conv2D, BatchNorm2D, ReLU, Residual</t>
+  </si>
+  <si>
+    <t>אם יש שימוש ב2 סוגי דאטא, משרשר אותם לטנזור בעומק 6 ומריץ ביחד ברשת</t>
+  </si>
+  <si>
+    <t>RGB and IR images (3x254x254)x2</t>
+  </si>
+  <si>
+    <t>Flame (Custom)</t>
+  </si>
+  <si>
+    <t>2 streams that same as Flame_one_stream, one for each data, added a Linear FC at the end to connect them</t>
+  </si>
+  <si>
+    <t>Late Fusion</t>
+  </si>
+  <si>
+    <t>משתמש ב2 סוגי דאטא, מריץ כל אחד בערוץ נפרד ומחבר בסוף בשכבה FC</t>
+  </si>
+  <si>
+    <t>RGB or IR images (3x254x254)</t>
+  </si>
+  <si>
+    <t>VGG16 added layers contain: Linear, ReLU, Dropout</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>2 streams that same as VGG16, one for each data, added a Linear FC &amp; Dropout at the end to connect them</t>
+  </si>
+  <si>
+    <t>MobileNetV2 added layers contain: Linear &amp; Dropout</t>
+  </si>
+  <si>
+    <t>2 streams that same as MobileNetV2, one for each data, added a Linear FC &amp; Dropout at the end to connect them</t>
+  </si>
+  <si>
+    <t>משרשר כל תמונה לטנזור (וקטור), X הוא טנזור המכיל את אוסף התמונות בbatch כוקטורים</t>
+  </si>
+  <si>
+    <t>Only one Lunear FC layer</t>
+  </si>
+  <si>
+    <t>יוצר שכבה אחת לינארית FC, עומק בהתאם לדאטא שנכנס</t>
+  </si>
+  <si>
+    <t>ResNet18 added layer: Linear</t>
+  </si>
+  <si>
+    <t>2 streams that same as ResNet18, one for each data, added a Linear FC &amp; Dropout at the end to connect them</t>
+  </si>
+  <si>
+    <t>Custom model, containing Conv2D, Tanh, AvgPool2d, Linear</t>
+  </si>
+  <si>
+    <t>Custom (LeNet5)</t>
+  </si>
+  <si>
+    <t>2 streams that same as LeNet5, one for each data, added a Linear FC &amp; Dropout at the end to connect them</t>
+  </si>
+  <si>
+    <t>General:</t>
+  </si>
+  <si>
+    <t>1. Dealing with IR: Replication of the tensor (with 1 channel) to a tensor with 3 identical channels</t>
+  </si>
+  <si>
+    <t>2. Inputs are preprocessing to a specific size (according to the model)</t>
+  </si>
+  <si>
+    <t>3. For networks with fine-tuning, inputs normalized according to the distribution of the images in ImageNet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,7 +200,16 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,9 +237,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -210,16 +247,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,6 +315,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7C19A0E-BC80-4AE2-BF58-8C916D333E66}" name="טבלה1" displayName="טבלה1" ref="A1:H13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:H13" xr:uid="{E7C19A0E-BC80-4AE2-BF58-8C916D333E66}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A3A53353-88C5-4492-9350-983AF889366D}" name="Model Name"/>
+    <tableColumn id="2" xr3:uid="{086E2F37-35A1-482E-9860-B1A267DC159B}" name="Inputs"/>
+    <tableColumn id="10" xr3:uid="{ECE6DD36-C658-4136-8CA8-F420FABED055}" name="Outputs"/>
+    <tableColumn id="3" xr3:uid="{78CF72C5-77CD-4158-B767-7916AFCDAD33}" name="Base Model"/>
+    <tableColumn id="6" xr3:uid="{39A5645C-DC2F-4883-BCF3-870EAC21D0CA}" name="Model Architecture"/>
+    <tableColumn id="4" xr3:uid="{9FE8E6F6-DB15-4AA6-AF19-CDAE0B6074F0}" name="MultiModality Handling"/>
+    <tableColumn id="5" xr3:uid="{88566064-BA46-44F7-A939-FBB06E1AD06D}" name="Details"/>
+    <tableColumn id="7" xr3:uid="{22052661-02C2-4AC5-80FB-C22DB5A622D0}" name="Trained Layers"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,25 +621,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,331 +655,356 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>